--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{CA07BEAD-130F-4EA2-8E6D-9AB28B479691}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{843876F9-8D11-4195-941F-E3AD0C017598}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{B72E215F-25A8-4BF5-80F2-AD85B5602214}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9088BB4D-9FFE-488C-A660-D8CFA12B3954}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{40C1D96D-C908-4683-A0EC-F3629754872E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{544D4722-0795-4012-9AD7-D56D44A743E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Sales" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>Pro-Fit Marietta</t>
+    <t>Pro Fit Marietta</t>
   </si>
   <si>
     <t>Second Quarter Cardio Sales</t>
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,12 +112,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,6 +141,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -160,8 +163,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -172,15 +175,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
+    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
     <cellStyle name="Total" xfId="4" builtinId="25"/>
@@ -233,8 +238,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Second Quarter Cardio Sales</a:t>
+              <a:t>Second Quarter Cardio</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sales</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -335,7 +345,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FFAE-490D-9E79-C24C322E0CDD}"/>
+              <c16:uniqueId val="{00000000-5E8E-4144-826E-C61D2903C9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -400,7 +410,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FFAE-490D-9E79-C24C322E0CDD}"/>
+              <c16:uniqueId val="{00000001-5E8E-4144-826E-C61D2903C9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -465,7 +475,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FFAE-490D-9E79-C24C322E0CDD}"/>
+              <c16:uniqueId val="{00000002-5E8E-4144-826E-C61D2903C9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -530,7 +540,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FFAE-490D-9E79-C24C322E0CDD}"/>
+              <c16:uniqueId val="{00000003-5E8E-4144-826E-C61D2903C9FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -544,71 +554,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1227542848"/>
-        <c:axId val="1165382624"/>
+        <c:axId val="1625962432"/>
+        <c:axId val="1754960112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1227542848"/>
+        <c:axId val="1625962432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -646,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1165382624"/>
+        <c:crossAx val="1754960112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -654,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1165382624"/>
+        <c:axId val="1754960112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,61 +629,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" b="1"/>
-                  <a:t>Amount</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -760,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1227542848"/>
+        <c:crossAx val="1625962432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -834,8 +734,8 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1390,20 +1290,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09C48FE4-13CD-4FFD-A15D-5916826AC483}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37435EEB-3C67-4A33-9DEB-E5C2E0B735B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,23 +1608,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96F58B6-FE34-4F48-A2DA-4BE97953DDAA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B0A1E-3235-45E2-8DEC-466B756E2346}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
@@ -1735,7 +1629,6 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
@@ -1745,19 +1638,18 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
@@ -1765,7 +1657,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1783,7 +1675,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1801,7 +1693,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1819,7 +1711,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1837,7 +1729,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="6">
@@ -1860,25 +1752,23 @@
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{7547FAF9-F101-46ED-B969-8721BAFA56DA}">
-          <x14:colorSeries theme="7" tint="-0.249977111117893"/>
-          <x14:colorNegative theme="8"/>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4D4470B1-0C4D-440F-9DDE-5A0E2215FFDF}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
-          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
-          <x14:colorLast theme="8" tint="-0.249977111117893"/>
-          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
-          <x14:colorLow theme="8" tint="-0.249977111117893"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>'Quarterly Sales'!B4:D4</xm:f>

--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Creating a Worksheet and Charting Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{B72E215F-25A8-4BF5-80F2-AD85B5602214}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{9088BB4D-9FFE-488C-A660-D8CFA12B3954}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{B72E215F-25A8-4BF5-80F2-AD85B5602214}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{56ADC5E9-A2DE-45CA-9021-B100EE46F9B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{544D4722-0795-4012-9AD7-D56D44A743E9}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -168,20 +168,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -1609,6 +1609,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B0A1E-3235-45E2-8DEC-466B756E2346}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1622,37 +1625,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1732,19 +1735,19 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <f>SUM(B4:B7)</f>
         <v>238614.07</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>279734.53000000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <f t="shared" si="1"/>
         <v>313973.20999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f>SUM(B8:D8)</f>
         <v>832321.81</v>
       </c>
@@ -1755,8 +1758,9 @@
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">

--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vajjh\OneDrive\Documents\Personal\Website\Soumya's Website\Spreadsheet Applications\Microsoft Excel-Comprehensive\Creating a Worksheet and Charting Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{B72E215F-25A8-4BF5-80F2-AD85B5602214}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{56ADC5E9-A2DE-45CA-9021-B100EE46F9B5}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{F9738ABC-DD8E-418B-99D8-60BA8685D89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37D1FBC1-41CF-44B9-AC9E-28E88D7642CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{544D4722-0795-4012-9AD7-D56D44A743E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5762E6F8-1CFF-40A9-95B0-BF5697F8B21F}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Sales" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,15 +147,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -163,29 +160,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="3" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
     <cellStyle name="Total" xfId="4" builtinId="25"/>
@@ -224,12 +219,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -237,14 +229,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Second Quarter Cardio</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Second Quarter Cardio Sales</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Sales</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -261,12 +248,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -299,13 +283,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="85000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="34000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="87000"/>
+                    <a:satMod val="125000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="70000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="100000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+              </a:path>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="2700000" algn="br" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -329,7 +349,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>68991.12</c:v>
@@ -345,7 +365,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E8E-4144-826E-C61D2903C9FE}"/>
+              <c16:uniqueId val="{00000000-8451-4324-820C-5AA6ACE73A53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -364,13 +384,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="85000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="34000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="87000"/>
+                    <a:satMod val="125000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="70000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="100000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+              </a:path>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="2700000" algn="br" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -394,7 +450,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>28836</c:v>
@@ -410,7 +466,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5E8E-4144-826E-C61D2903C9FE}"/>
+              <c16:uniqueId val="{00000001-8451-4324-820C-5AA6ACE73A53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -429,13 +485,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="85000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="34000">
+                  <a:schemeClr val="accent6">
+                    <a:shade val="87000"/>
+                    <a:satMod val="125000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="70000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="100000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+              </a:path>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="2700000" algn="br" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -459,7 +551,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>59519.78</c:v>
@@ -475,7 +567,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5E8E-4144-826E-C61D2903C9FE}"/>
+              <c16:uniqueId val="{00000002-8451-4324-820C-5AA6ACE73A53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -494,13 +586,53 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="85000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="34000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="87000"/>
+                    <a:satMod val="125000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="70000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:tint val="100000"/>
+                    <a:shade val="90000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:tint val="100000"/>
+                    <a:shade val="100000"/>
+                    <a:satMod val="110000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:path path="circle">
+                <a:fillToRect l="100000" t="100000" r="100000" b="100000"/>
+              </a:path>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="25400" dir="2700000" algn="br" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="60000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -524,7 +656,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0</c:formatCode>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>81267.17</c:v>
@@ -540,7 +672,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5E8E-4144-826E-C61D2903C9FE}"/>
+              <c16:uniqueId val="{00000003-8451-4324-820C-5AA6ACE73A53}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -552,13 +684,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1625962432"/>
-        <c:axId val="1754960112"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="948401248"/>
+        <c:axId val="1053076384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1625962432"/>
+        <c:axId val="948401248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +704,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -588,10 +720,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -601,7 +730,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1754960112"/>
+        <c:crossAx val="1053076384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -609,7 +738,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1754960112"/>
+        <c:axId val="1053076384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,7 +748,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -629,7 +758,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -647,10 +776,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -660,7 +786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1625962432"/>
+        <c:crossAx val="948401248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -689,10 +815,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -713,7 +836,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -734,19 +857,16 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -781,33 +901,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -822,7 +936,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -830,7 +944,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -838,17 +952,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -857,9 +968,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -882,35 +992,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -919,33 +1029,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -961,21 +1070,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1009,17 +1113,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1028,14 +1132,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1047,26 +1151,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1080,17 +1178,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1099,17 +1196,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -1118,17 +1215,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1137,27 +1233,24 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1165,11 +1258,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1177,17 +1278,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1196,12 +1297,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1210,14 +1308,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1226,10 +1324,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1238,7 +1333,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1259,10 +1354,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1271,14 +1363,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1287,23 +1373,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37435EEB-3C67-4A33-9DEB-E5C2E0B735B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899D6DBD-B7D7-4FFC-9059-BC03E5F0E2D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,59 +1694,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B0A1E-3235-45E2-8DEC-466B756E2346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75ACE5E-5E37-4014-8064-69090AACF688}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="5" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1678,7 +1766,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -1696,7 +1784,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -1714,7 +1802,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -1732,22 +1820,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <f>SUM(B4:B7)</f>
         <v>238614.07</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>279734.53000000003</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <f t="shared" si="1"/>
         <v>313973.20999999996</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <f>SUM(B8:D8)</f>
         <v>832321.81</v>
       </c>
@@ -1755,24 +1843,25 @@
     <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4D4470B1-0C4D-440F-9DDE-5A0E2215FFDF}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{2ABCA523-15CA-4699-A7E9-AC65405C5C68}">
+          <x14:colorSeries theme="7" tint="-0.249977111117893"/>
+          <x14:colorNegative theme="8"/>
           <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
+          <x14:colorMarkers theme="8" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="8" tint="-0.249977111117893"/>
+          <x14:colorLast theme="8" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="8" tint="-0.249977111117893"/>
+          <x14:colorLow theme="8" tint="-0.249977111117893"/>
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>'Quarterly Sales'!B4:D4</xm:f>

--- a/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
+++ b/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/Quarterly Sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Spreadsheet Applications/Microsoft Excel-Comprehensive/Creating a Worksheet and Charting Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{F9738ABC-DD8E-418B-99D8-60BA8685D89C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37D1FBC1-41CF-44B9-AC9E-28E88D7642CD}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{138FCBF8-E41F-47A6-BC02-FC6F07BBA8B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{13C66F9C-0ABA-443C-88A3-3AFB50F57B27}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5762E6F8-1CFF-40A9-95B0-BF5697F8B21F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{186908E4-FF33-4D52-8C2B-AF20D7AD3B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Sales" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
     <t>Exercise Bikes</t>
   </si>
   <si>
-    <t>Elliptical Machines</t>
+    <t>Illiptical Machines</t>
   </si>
   <si>
     <t>Treadmills</t>
@@ -71,12 +73,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,12 +116,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,25 +160,24 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -349,7 +350,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$4:$D$4</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>68991.12</c:v>
@@ -365,7 +366,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8451-4324-820C-5AA6ACE73A53}"/>
+              <c16:uniqueId val="{00000000-999D-4245-A269-3EF538919253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -378,7 +379,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Elliptical Machines</c:v>
+                  <c:v>Illiptical Machines</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,7 +451,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$5:$D$5</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>28836</c:v>
@@ -466,7 +467,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8451-4324-820C-5AA6ACE73A53}"/>
+              <c16:uniqueId val="{00000001-999D-4245-A269-3EF538919253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -551,7 +552,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>59519.78</c:v>
@@ -567,7 +568,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8451-4324-820C-5AA6ACE73A53}"/>
+              <c16:uniqueId val="{00000002-999D-4245-A269-3EF538919253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -656,7 +657,7 @@
             <c:numRef>
               <c:f>'Quarterly Sales'!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>81267.17</c:v>
@@ -672,7 +673,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8451-4324-820C-5AA6ACE73A53}"/>
+              <c16:uniqueId val="{00000003-999D-4245-A269-3EF538919253}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -686,11 +687,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="948401248"/>
-        <c:axId val="1053076384"/>
+        <c:axId val="1307662208"/>
+        <c:axId val="1300691168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="948401248"/>
+        <c:axId val="1307662208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -730,7 +731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1053076384"/>
+        <c:crossAx val="1300691168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -738,7 +739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1053076384"/>
+        <c:axId val="1300691168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +759,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;$&quot;#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -786,7 +787,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="948401248"/>
+        <c:crossAx val="1307662208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,23 +1374,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{899D6DBD-B7D7-4FFC-9059-BC03E5F0E2D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5635D857-F39F-4A11-BEE2-970122DE011D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1694,148 +1695,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75ACE5E-5E37-4014-8064-69090AACF688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD4A09D-8E91-41B3-B261-3A8FB9383E47}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>68991.12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>86894.82</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>99650.58</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <f>SUM(B4:D4)</f>
         <v>255536.52000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>28836</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>22634.23</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>22828.78</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E7" si="0">SUM(B5:D5)</f>
         <v>74299.009999999995</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>59519.78</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>82337.98</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>99823.87</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>241681.63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>81267.17</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>87867.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>91669.98</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>260804.64999999997</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <f>SUM(B4:B7)</f>
         <v>238614.07</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <f t="shared" ref="C8:D8" si="1">SUM(C4:C7)</f>
         <v>279734.53000000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <f t="shared" si="1"/>
         <v>313973.20999999996</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <f>SUM(B8:D8)</f>
         <v>832321.81</v>
       </c>
@@ -1846,14 +1848,14 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{2ABCA523-15CA-4699-A7E9-AC65405C5C68}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" markers="1" xr2:uid="{30DE0655-7EAC-411A-A12A-933751588DB2}">
           <x14:colorSeries theme="7" tint="-0.249977111117893"/>
           <x14:colorNegative theme="8"/>
           <x14:colorAxis rgb="FF000000"/>
